--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,228 +46,228 @@
     <t>crap</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>disappointed</t>
   </si>
   <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>loose</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>small</t>
   </si>
   <si>
     <t>probably</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>un</t>
   </si>
   <si>
-    <t>short</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>fell</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
     <t>fl</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>thought</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>parts</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>fit</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>fit</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>use</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
@@ -277,30 +277,33 @@
     <t>like</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>fantastic</t>
   </si>
   <si>
@@ -316,82 +319,82 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>sturdy</t>
+    <t>every</t>
   </si>
   <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>birthday</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>nice</t>
+  </si>
+  <si>
+    <t>playing</t>
   </si>
   <si>
     <t>play</t>
@@ -758,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,10 +769,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -848,16 +851,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3">
-        <v>0.8888888888888888</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -869,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -898,16 +901,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -919,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -927,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8863636363636364</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,16 +951,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5">
-        <v>0.8615384615384616</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -969,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -998,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K6">
         <v>0.85</v>
@@ -1027,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7619047619047619</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1045,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K7">
-        <v>0.8172043010752689</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1069,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1077,13 +1080,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7464788732394366</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1095,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K8">
-        <v>0.796875</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1119,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1127,13 +1130,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7407407407407407</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1145,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9">
         <v>0.75</v>
@@ -1177,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7365591397849462</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C10">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1195,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>0.6792452830188679</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1219,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1227,13 +1230,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7241379310344828</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1245,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K11">
-        <v>0.5624103299856528</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L11">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1269,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>305</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1277,13 +1280,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6956521739130435</v>
+        <v>0.6875</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1295,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K12">
-        <v>0.5362318840579711</v>
+        <v>0.5595408895265424</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1319,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1327,13 +1330,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6875</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1345,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13">
-        <v>0.4979253112033195</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L13">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M13">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1369,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1377,13 +1380,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6571428571428571</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1395,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K14">
-        <v>0.4598360655737705</v>
+        <v>0.4614754098360656</v>
       </c>
       <c r="L14">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M14">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1419,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1427,13 +1430,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6428571428571429</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1445,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K15">
-        <v>0.3773584905660378</v>
+        <v>0.3608562691131498</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1469,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1498,16 +1501,16 @@
         <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16">
-        <v>0.3617021276595745</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1519,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1527,13 +1530,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6285714285714286</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1545,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17">
-        <v>0.3516819571865443</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="L17">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1569,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>212</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1577,13 +1580,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6283783783783784</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1595,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K18">
-        <v>0.3333333333333333</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1619,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1627,13 +1630,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6262135922330098</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C19">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1645,31 +1648,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19">
-        <v>0.3090909090909091</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1677,13 +1680,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1695,31 +1698,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20">
-        <v>0.2857142857142857</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L20">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>135</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1727,13 +1730,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5630252100840336</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C21">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1745,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K21">
-        <v>0.2711864406779661</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1769,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1777,13 +1780,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5625</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1795,19 +1798,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K22">
-        <v>0.2265625</v>
+        <v>0.234375</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1819,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1827,13 +1830,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5526315789473685</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1845,31 +1848,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K23">
-        <v>0.2236842105263158</v>
+        <v>0.234375</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1877,13 +1880,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1895,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K24">
-        <v>0.2097902097902098</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1919,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1927,13 +1930,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5014492753623189</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C25">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1945,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K25">
-        <v>0.2096774193548387</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1969,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1977,13 +1980,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4444444444444444</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1995,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K26">
-        <v>0.1847389558232932</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L26">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2019,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>203</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2027,13 +2030,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4418604651162791</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2045,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K27">
-        <v>0.1839080459770115</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2069,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>71</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2098,16 +2101,16 @@
         <v>28</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K28">
-        <v>0.1825396825396825</v>
+        <v>0.168</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2119,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2130,10 +2133,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2145,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K29">
-        <v>0.168</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L29">
         <v>21</v>
@@ -2169,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2177,13 +2180,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4259259259259259</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2195,19 +2198,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K30">
-        <v>0.147239263803681</v>
+        <v>0.1551270815074496</v>
       </c>
       <c r="L30">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="M30">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2219,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2227,49 +2230,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.421875</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C31">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>32</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31">
+        <v>0.07541899441340782</v>
+      </c>
+      <c r="L31">
         <v>27</v>
       </c>
-      <c r="D31">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>37</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K31">
-        <v>0.1452991452991453</v>
-      </c>
-      <c r="L31">
-        <v>17</v>
-      </c>
       <c r="M31">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2277,13 +2280,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3937007874015748</v>
+        <v>0.4</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2295,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K32">
-        <v>0.08171206225680934</v>
+        <v>0.07219251336898395</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2319,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>236</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2327,13 +2330,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3933649289099526</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C33">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2345,19 +2348,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K33">
-        <v>0.08077994428969359</v>
+        <v>0.07003891050583658</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2369,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>330</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2377,13 +2380,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3818181818181818</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2395,19 +2398,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K34">
-        <v>0.07142857142857142</v>
+        <v>0.06948051948051948</v>
       </c>
       <c r="L34">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M34">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N34">
         <v>0.99</v>
@@ -2419,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>1430</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2427,7 +2430,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.375</v>
+        <v>0.3779527559055118</v>
       </c>
       <c r="C35">
         <v>48</v>
@@ -2445,31 +2448,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K35">
-        <v>0.06951871657754011</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>348</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2477,13 +2480,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3734939759036144</v>
+        <v>0.359375</v>
       </c>
       <c r="C36">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2495,31 +2498,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K36">
-        <v>0.05862068965517241</v>
+        <v>0.04643962848297214</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>273</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2527,13 +2530,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3666666666666666</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2545,31 +2548,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K37">
-        <v>0.03728362183754994</v>
+        <v>0.03733333333333334</v>
       </c>
       <c r="L37">
         <v>28</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2577,13 +2580,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3650793650793651</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2595,31 +2598,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K38">
-        <v>0.02556818181818182</v>
+        <v>0.02130681818181818</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2627,13 +2630,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3492063492063492</v>
+        <v>0.3515625</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2645,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2653,13 +2656,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3473684210526316</v>
+        <v>0.35</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2671,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2679,13 +2682,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3148148148148148</v>
+        <v>0.3412322274881517</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2697,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>37</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2705,13 +2708,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3114754098360656</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2731,13 +2734,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2921348314606741</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2749,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2757,13 +2760,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2857142857142857</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2775,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2783,13 +2786,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2758620689655172</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2801,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2809,13 +2812,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2686567164179104</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="C46">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2827,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2835,13 +2838,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2653061224489796</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2853,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2861,13 +2864,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2623762376237624</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="C48">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2879,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2887,13 +2890,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2463768115942029</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2905,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2913,13 +2916,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2307692307692308</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2931,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2939,13 +2942,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2268041237113402</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C51">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2957,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>150</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2965,13 +2968,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2087912087912088</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C52">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2983,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2991,13 +2994,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2027027027027027</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3009,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>59</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3017,7 +3020,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C54">
         <v>15</v>
@@ -3035,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3043,13 +3046,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1884057971014493</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C55">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D55">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3061,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>224</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3069,13 +3072,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.185</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C56">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D56">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3087,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>163</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3095,13 +3098,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1752577319587629</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3113,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3121,13 +3124,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1676557863501484</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="C58">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3139,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>561</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3147,25 +3150,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1642857142857143</v>
+        <v>0.1693907875185736</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="D59">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>117</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3173,13 +3176,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1635514018691589</v>
+        <v>0.165</v>
       </c>
       <c r="C60">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D60">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3191,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3199,13 +3202,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1610169491525424</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C61">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3217,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3225,13 +3228,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.154639175257732</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3243,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>82</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3251,25 +3254,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1428571428571428</v>
+        <v>0.1613832853025937</v>
       </c>
       <c r="C63">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D63">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>150</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3277,13 +3280,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1424050632911392</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="C64">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3295,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>271</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3303,13 +3306,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1343612334801762</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C65">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D65">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3321,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>393</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3329,13 +3332,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1293103448275862</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C66">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D66">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3347,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3355,25 +3358,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1240601503759398</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C67">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E67">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>233</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3381,13 +3384,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1234177215189873</v>
+        <v>0.1299559471365639</v>
       </c>
       <c r="C68">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D68">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3399,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>277</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3407,13 +3410,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1210191082802548</v>
+        <v>0.125</v>
       </c>
       <c r="C69">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3425,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>138</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3433,25 +3436,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1174089068825911</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="C70">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E70">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>218</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3459,13 +3462,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1153846153846154</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="C71">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3477,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>115</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3485,13 +3488,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1099476439790576</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3503,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3511,25 +3514,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1092896174863388</v>
+        <v>0.1165413533834586</v>
       </c>
       <c r="C73">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>163</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3537,25 +3540,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1063829787234043</v>
+        <v>0.1028571428571429</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D74">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E74">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3563,13 +3566,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09740259740259741</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D75">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3581,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>139</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3589,25 +3592,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.0949367088607595</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D76">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3615,25 +3618,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0847457627118644</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="C77">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D77">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E77">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>324</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3641,25 +3644,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07967032967032966</v>
+        <v>0.09014084507042254</v>
       </c>
       <c r="C78">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E78">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3667,13 +3670,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.078125</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C79">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3685,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3693,22 +3696,22 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.078125</v>
+        <v>0.0801781737193764</v>
       </c>
       <c r="C80">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D80">
         <v>36</v>
       </c>
       <c r="E80">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>413</v>
@@ -3719,13 +3722,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.06589785831960461</v>
+        <v>0.07248764415156507</v>
       </c>
       <c r="C81">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D81">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E81">
         <v>0.02</v>
@@ -3737,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3745,25 +3748,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.05206738131699847</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="C82">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E82">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F82">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>619</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3771,25 +3774,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05079365079365079</v>
+        <v>0.05373831775700934</v>
       </c>
       <c r="C83">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D83">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E83">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="F83">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>299</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3797,13 +3800,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.04640371229698376</v>
+        <v>0.05203045685279188</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D84">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E84">
         <v>0.13</v>
@@ -3815,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>411</v>
+        <v>747</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3823,25 +3826,51 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.04182509505703422</v>
+        <v>0.04439252336448598</v>
       </c>
       <c r="C85">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D85">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E85">
+        <v>0.05</v>
+      </c>
+      <c r="F85">
+        <v>0.95</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.04147465437788019</v>
+      </c>
+      <c r="C86">
+        <v>27</v>
+      </c>
+      <c r="D86">
+        <v>31</v>
+      </c>
+      <c r="E86">
         <v>0.13</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <v>0.87</v>
       </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>756</v>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
